--- a/analysis/post_gemini_data/participant280/easy.xlsx
+++ b/analysis/post_gemini_data/participant280/easy.xlsx
@@ -17,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,21 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U9"/>
+  <dimension ref="A1:U10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,280 +422,182 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 0</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>asssignment</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>coce</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>condbody</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>condstae</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>gemini</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>index</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>index2</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>loopbody</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>loopstate</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>methdodec</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>param</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>summary</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>var</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>var2</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>var3</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>var4</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>var5</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>var6</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>var7</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>var8</t>
-        </is>
-      </c>
+      <c r="A1" t="inlineStr"/>
+      <c r="B1" t="inlineStr"/>
+      <c r="C1" t="inlineStr"/>
+      <c r="D1" t="inlineStr"/>
+      <c r="E1" t="inlineStr"/>
+      <c r="F1" t="inlineStr"/>
+      <c r="G1" t="inlineStr"/>
+      <c r="H1" t="inlineStr"/>
+      <c r="I1" t="inlineStr"/>
+      <c r="J1" t="inlineStr"/>
+      <c r="K1" t="inlineStr"/>
+      <c r="L1" t="inlineStr"/>
+      <c r="M1" t="inlineStr"/>
+      <c r="N1" t="inlineStr"/>
+      <c r="O1" t="inlineStr"/>
+      <c r="P1" t="inlineStr"/>
+      <c r="Q1" t="inlineStr"/>
+      <c r="R1" t="inlineStr"/>
+      <c r="S1" t="inlineStr"/>
+      <c r="T1" t="inlineStr"/>
+      <c r="U1" t="inlineStr"/>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
         <is>
           <t>asssignment</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>coce</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>condbody</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>condstae</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>gemini</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>index</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>index2</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>loopbody</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>loopstate</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>methdodec</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>param</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>summary</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>var</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>var2</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>var3</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>var4</t>
         </is>
       </c>
-      <c r="R2" t="inlineStr">
+      <c r="R3" t="inlineStr">
         <is>
           <t>var5</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>var6</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>var7</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>var8</t>
         </is>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Fixation based metrics</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Revisit count</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="n">
-        <v>20</v>
+          <t>Fixation</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>based</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>metrics</t>
+        </is>
       </c>
       <c r="D4" t="inlineStr"/>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>20</v>
-      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
-      <c r="I4" t="n">
-        <v>2</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" t="n">
-        <v>9</v>
-      </c>
-      <c r="L4" t="n">
-        <v>3</v>
-      </c>
-      <c r="M4" t="n">
-        <v>21</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
+      <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr"/>
@@ -718,41 +608,37 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Fixation count</t>
+          <t>Revisit count</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>34</v>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="n">
-        <v>1</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
-        <v>194</v>
+        <v>20</v>
       </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>3</v>
-      </c>
-      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
         <v>2</v>
       </c>
-      <c r="K5" t="n">
-        <v>12</v>
-      </c>
-      <c r="L5" t="n">
-        <v>4</v>
-      </c>
       <c r="M5" t="n">
-        <v>74</v>
+        <v>23</v>
       </c>
       <c r="N5" t="inlineStr"/>
-      <c r="O5" t="n">
-        <v>1</v>
-      </c>
+      <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr"/>
@@ -763,41 +649,37 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Dwell time (ms)</t>
+          <t>Fixation count</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>19487.37</v>
-      </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="n">
-        <v>617.36</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
-        <v>56783.71</v>
+        <v>194</v>
       </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
-        <v>2894.86</v>
-      </c>
-      <c r="J6" t="n">
-        <v>867.48</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="n">
-        <v>6473.78</v>
+        <v>1</v>
       </c>
       <c r="L6" t="n">
-        <v>3194.99</v>
+        <v>3</v>
       </c>
       <c r="M6" t="n">
-        <v>44873.12</v>
+        <v>77</v>
       </c>
       <c r="N6" t="inlineStr"/>
-      <c r="O6" t="n">
-        <v>250.12</v>
-      </c>
+      <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr"/>
@@ -808,41 +690,37 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Dwell time (%)</t>
+          <t>Dwell time (ms)</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="n">
-        <v>19.53</v>
-      </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="n">
-        <v>0.62</v>
-      </c>
+        <v>2535.62</v>
+      </c>
+      <c r="D7" t="n">
+        <v>150.52</v>
+      </c>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="n">
-        <v>41.99</v>
+        <v>56783.71</v>
       </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.87</v>
-      </c>
+        <v>400.71</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="n">
-        <v>6.49</v>
+        <v>317.05</v>
       </c>
       <c r="L7" t="n">
-        <v>3.2</v>
+        <v>717.09</v>
       </c>
       <c r="M7" t="n">
-        <v>44.96</v>
+        <v>38015.84</v>
       </c>
       <c r="N7" t="inlineStr"/>
-      <c r="O7" t="n">
-        <v>0.25</v>
-      </c>
+      <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr"/>
@@ -853,41 +731,37 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Fixation duration (ms)</t>
+          <t>Dwell time (%)</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="n">
-        <v>573.16</v>
-      </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="n">
-        <v>617.36</v>
-      </c>
+        <v>1.87</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
-        <v>292.7</v>
+        <v>41.99</v>
       </c>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>964.95</v>
-      </c>
-      <c r="J8" t="n">
-        <v>433.74</v>
-      </c>
+        <v>0.3</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="n">
-        <v>539.48</v>
+        <v>0.23</v>
       </c>
       <c r="L8" t="n">
-        <v>798.75</v>
+        <v>0.53</v>
       </c>
       <c r="M8" t="n">
-        <v>606.39</v>
+        <v>28.11</v>
       </c>
       <c r="N8" t="inlineStr"/>
-      <c r="O8" t="n">
-        <v>250.12</v>
-      </c>
+      <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr"/>
@@ -898,41 +772,37 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>First fixation duration (ms)</t>
+          <t>Fixation duration (ms)</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="n">
-        <v>458.81</v>
-      </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="n">
-        <v>617.36</v>
-      </c>
+        <v>281.74</v>
+      </c>
+      <c r="D9" t="n">
+        <v>150.52</v>
+      </c>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="n">
-        <v>233.16</v>
+        <v>292.7</v>
       </c>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="n">
-        <v>617.36</v>
-      </c>
-      <c r="J9" t="n">
-        <v>617.36</v>
-      </c>
+        <v>200.36</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="n">
-        <v>575.65</v>
+        <v>317.05</v>
       </c>
       <c r="L9" t="n">
-        <v>433.8</v>
+        <v>239.03</v>
       </c>
       <c r="M9" t="n">
-        <v>433.8</v>
+        <v>493.71</v>
       </c>
       <c r="N9" t="inlineStr"/>
-      <c r="O9" t="n">
-        <v>250.12</v>
-      </c>
+      <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr"/>
@@ -940,6 +810,47 @@
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr"/>
     </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>First fixation duration (ms)</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="n">
+        <v>317.05</v>
+      </c>
+      <c r="D10" t="n">
+        <v>150.52</v>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="n">
+        <v>233.16</v>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="n">
+        <v>250.19</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>317.05</v>
+      </c>
+      <c r="L10" t="n">
+        <v>199.83</v>
+      </c>
+      <c r="M10" t="n">
+        <v>200.25</v>
+      </c>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="inlineStr"/>
+      <c r="U10" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
